--- a/app/src/excel/Mapeamento_TBXP0001_MUNICIPIO.xlsx
+++ b/app/src/excel/Mapeamento_TBXP0001_MUNICIPIO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7620"/>
@@ -15,18 +15,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Mapping!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Mapping!$1:$18</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -231,6 +220,11 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -304,19 +298,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -457,17 +446,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -476,21 +454,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,121 +483,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -650,68 +639,68 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -852,14 +841,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -880,25 +861,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12338" name="Imagem 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000032300000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2049" name="Imagem 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -913,28 +882,12 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="9525">
           <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -954,25 +907,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12339" name="Imagem 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000033300000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2050" name="Imagem 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -987,28 +928,12 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="9525">
           <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1310,7 +1235,7 @@
       <pane xSplit="3" ySplit="18" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2221,7 +2146,7 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement/>
 </p:properties>
 </file>
@@ -2253,10 +2178,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74282D5E-E4C4-4BE4-950F-196DFB2B0A00}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7704D807-F66A-4107-837E-0675D6C963B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>